--- a/src/analysis_examples/circadb/results_jtk/cosinor_10396278_daam1_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10396278_daam1_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3145958989001702, 0.4256275974758528]</t>
+          <t>[0.31638792277686073, 0.4238355735991623]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.861444580228635e-12</v>
+        <v>2.599476189857342e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>4.861444580228635e-12</v>
+        <v>2.599476189857342e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6792632764518469</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.47448767644869716, 0.5314478616648262]</t>
+          <t>[0.47452177548404806, 0.5314137626294753]</t>
         </is>
       </c>
       <c r="U2" t="n">
